--- a/lib/text_questions/questions_base.xlsx
+++ b/lib/text_questions/questions_base.xlsx
@@ -20,402 +20,423 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
-  <si>
-    <t xml:space="preserve">Как выбрать правильные грузовые шины 12R20 для моего грузовика?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие бренды предлагают грузовые шины 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каков срок службы грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На что нужно обратить внимание при выборе грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Существуют ли различные типы протекторов у грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каковы преимущества использования грузовых шин 12R20 с усиленной боковиной?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В чем разница между радиальными и диагональными грузовыми шинами?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как часто нужно проверять давление в грузовых шинах 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какой должен быть правильный уровень давления в грузовых шинах 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каковы особенности установки грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как проверить износ грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сколько шин нужно заменить сразу на грузовике: одну или обе стороны?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как часто нужно проводить балансировку грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие условия эксплуатации могут повлиять на срок службы грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могу ли я использовать грузовые шины 12R20 на разных типах дорог?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие технологии используются для повышения сцепления грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как сравнить разные модели грузовых шин 12R20 по их производительности?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие рекомендации по уходу за грузовыми шинами 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие возможности есть для ремонта поврежденных грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие недостатки могут быть у грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие факторы влияют на цену грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как долго может храниться грузовая шина 12R20 до установки?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие гарантии обычно предоставляются на грузовые шины 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие альтернативы существуют для грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 наиболее подходят для бездорожья?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каковы особенности использования грузовых шин 12R20 в зимних условиях?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут ли грузовые шины 12R20 повысить экономию топлива?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие особенности следует учитывать при эксплуатации грузовых шин 12R20 на дальних расстояниях?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут ли грузовые шины 12R20 влиять на комфорт и управляемость грузового автомобиля?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 имеют лучшее сцепление на мокрых дорогах?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как выбрать грузовые шины 12R20 для грузовиков с различной нагрузкой?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие опасности связаны с использованием изношенных грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут ли грузовые шины 12R20 влиять на расход топлива?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 обеспечивают лучшую устойчивость на скользких дорогах?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут ли грузовые шины 12R20 быть использованы для внедорожных автомобилей?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как выбрать грузовые шины 12R20 с учетом грузоподъемности автомобиля?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие факторы могут повлиять на сцепление грузовых шин 12R20 на мокром асфальте?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 обеспечивают лучшую тягу на грунтовых дорогах?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какова рекомендуемая глубина протектора для грузовых шин 12R20 в различных условиях эксплуатации?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 наиболее подходят для грузовиков с грузом?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как часто нужно проводить ротацию грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие преимущества предлагают грузовые шины 12R20 с технологией самоочищения?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 наиболее подходят для длительных перевозок на дальние расстояния?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут ли грузовые шины 12R20 повлиять на снижение вибрации в кабине водителя?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 обеспечивают лучшее сцепление на грунтовых дорогах?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какова оптимальная глубина протектора для грузовых шин 12R20 при езде по снегу?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 наиболее подходят для перевозки контейнеров?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут ли грузовые шины 12R20 повысить уровень безопасности на дороге?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие технологии используются для улучшения сцепления грузовых шин 12R20 на снегу и льду?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 рекомендуются для перевозки опасных грузов?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие преимущества предлагают грузовые шины 12R20 с улучшенной износостойкостью?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут ли грузовые шины 12R20 повысить эффективность торможения на мокрой дороге?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие факторы влияют на срок службы грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 наиболее подходят для перевозки тяжелых грузов?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие преимущества предлагают грузовые шины 12R20 с улучшенной устойчивостью к проколам?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут ли грузовые шины 12R20 повысить комфорт и управляемость грузовика?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие технологии используются для улучшения тяговых характеристик грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут ли грузовые шины 12R20 снизить расход топлива?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие грузовые шины 12R20 обеспечивают лучшую устойчивость при перевозке неустойчивых грузов?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие технологии используются для уменьшения износа и повышения долговечности грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как часто следует проверять давление в грузовых шинах 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каково должно быть рекомендуемое давление в грузовых шинах 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Существует ли разница в давлении для передних и задних грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет недостаточное давление в грузовых шинах 12R20 на эксплуатацию транспортного средства?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Что происходит при перегрузке грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры предосторожности следует принять при эксплуатации грузовых шин 12R20 в жаркую погоду?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие особенности следует учитывать при эксплуатации грузовых шин 12R20 в холодную погоду?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В чем опасность использования изношенных грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как долго грузовые шины 12R20 могут храниться без использования?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какой максимальный пробег можно ожидать от грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нужно ли проводить балансировку грузовых шин 12R20 при их установке?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие последствия могут быть при неправильной установке грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как часто следует проводить регулярную инспекцию грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие особенности обслуживания требуют грузовые шины 12R20 на разных типах дорог?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет скорость движения на износ грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие основные факторы влияют на срок службы грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности нужно соблюдать при замене грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каковы последствия использования несовместимых грузовых шин 12R20 на одном транспортном средстве?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как правильно хранить грузовые шины 12R20 для сохранения их качества?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие особенности эксплуатации грузовых шин 12R20 на грунтовых дорогах?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет перегрузка транспортного средства на давление в грузовых шинах 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как правильно использовать грузовые шины 12R20 при перевозке различных типов грузов?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при хранении и транспортировке грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет изношенный протектор на сцепление грузовых шин 12R20 с дорожным покрытием?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие опасности связаны с использованием поврежденных грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияют погодные условия на давление в грузовых шинах 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры предосторожности следует принимать при движении на мокрых дорогах с грузовыми шинами 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет степень износа грузовых шин 12R20 на тормозной путь транспортного средства?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как правильно поддерживать и чистить грузовые шины 12R20 для продления их срока службы?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как часто следует проводить визуальный осмотр грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры предосторожности нужно принимать при движении по дорогам с острыми предметами на поверхности?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет давление в грузовых шинах 12R20 на расход топлива транспортного средства?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при замене колес с грузовыми шинами 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как правильно хранить запасные грузовые шины 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет степень износа грузовых шин 12R20 на устойчивость транспортного средства на дороге?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет неправильная балансировка грузовых шин 12R20 на устойчивость транспортного средства при движении на высоких скоростях?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры предосторожности следует принимать при управлении транспортным средством с изношенными грузовыми шинами 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияют условия хранения на качество грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет давление в грузовых шинах 12R20 на управляемость транспортного средства при поворотах?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияют условия дороги на износ грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет несовпадение размеров грузовых шин 12R20 с рекомендациями производителя на управляемость автомобиля?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при использовании грузовых шин 12R20 в условиях дождя?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет износ протектора грузовых шин 12R20 на их сцепление с дорожным покрытием?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры предосторожности следует принимать при использовании грузовых шин 12R20 на перегруженных транспортных средствах?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как правильно хранить грузовые шины 12R20 при их длительном хранении?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при установке грузовых шин 12R20 на транспортное средство?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияют дорожные ямы и неровности на износ грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как проверить правильность установки грузовых шин 12R20 на транспортное средство?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при использовании грузовых шин 12R20 на длинных перевозках?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияют скоростные режимы на износ грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как проверить состояние боковин грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как проверить состояние протектора грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при использовании грузовых шин 12R20 на перевозках с ограниченным пространством маневра?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет резкий старт и торможение на износ грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как проверить состояние внутренних слоев грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при движении на транспортном средстве с поврежденными грузовыми шинами 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияют перегрузки на срок службы грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при движении на транспортном средстве с устаревшими грузовыми шинами 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияют неправильные углы схождения на износ грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при использовании грузовых шин 12R20 на длинных спусках?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет чрезмерная нагрузка на сцепление грузовых шин 12R20 с дорогой?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет неправильная установка колеса на износ грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как проверить состояние вентильных ниппелей грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при движении на транспортном средстве с плохо накачанными грузовыми шинами 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как влияет чрезмерное использование ручного тормоза на износ грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как проверить состояние каркаса грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие меры безопасности следует соблюдать при движении на транспортном средстве с неправильно настроенными тормозами?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какова роль каркаса в строении грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие материалы используются для производства каркаса грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие компоненты обеспечивают устойчивость боковин грузовых шин 12R20?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие элементы грузовых шин 12R20 обеспечивают сцепление с дорожным покрытием?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие элементы конструкции грузовых шин 12R20 обеспечивают защиту от проколов и порезов?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+  <si>
+    <t xml:space="preserve">Как выбрать правильные диски для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие бренды дисков считаются самыми надежными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существует ли разница между литыми и штампованными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие размеры дисков подходят для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой диаметр дисков лучше всего выбрать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой профиль дисков является наиболее оптимальным?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могу ли я установить диски большего диаметра, чем указано в техпаспорте автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чем отличаются оригинальные диски от аналогов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой цвет дисков будет лучше сочетаться с моим автомобилем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие материалы используются при производстве легковых дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как часто следует проверять давление в шинах после замены дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие диски легче всего чистить и ухаживать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Влияют ли легкие диски на расход топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как долго обычно служат легкие диски?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть ли специальные рекомендации по уходу за дисками после замены?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества предоставляют легкие диски перед обычными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоит ли выбирать диски с защитой от царапин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить качество легковых дисков перед покупкой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы особенности установки легковых дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно замерить параметры дисков перед покупкой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как часто нужно проводить балансировку после установки новых дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие диски лучше выбрать для спортивного стиля вождения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие диски рекомендуется использовать в зимний период?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть ли спецификации, которые необходимо знать перед выбором дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли установить диски с большим диаметром без модификации автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно хранить диски перед их установкой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существует ли оптимальное соотношение между ценой и качеством дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие диски лучше всего подходят для длительных поездок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как узнать, подходят ли диски под конкретные шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть ли рекомендации по выбору дисков для улучшения внешнего вида автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли устанавливать диски самостоятельно или нужно обращаться к специалистам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы влияют на долговечность легковых дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как часто рекомендуется проверять состояние дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существует ли оптимальное время года для покупки дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть ли разница в качестве у дисков разных ценовых категорий?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие рекомендации по уходу за легковыми дисками R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как часто нужно проверять давление в шинах при использовании дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существуют ли особые правила эксплуатации легковых дисков R22 в различных климатических условиях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие материалы и инструменты следует использовать для чистки и ухода за дисками R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть ли специфические рекомендации по балансировке и креплению дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как избежать повреждений и царапин на поверхности дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоит ли проводить какие-либо особые процедуры перед заменой или установкой дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы могут повлиять на долговечность и безопасность эксплуатации дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности следует учитывать при езде на длинные расстояния с дисками R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно хранить диски R22 во время и после сезонной эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие рекомендации по выбору шин и давлению в них при использовании дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существуют ли ограничения по скорости при эксплуатации автомобиля с дисками R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности монтажа и демонтажа дисков R22 влияют на их долговечность?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть ли специфические рекомендации по замене дисков R22 после повреждений или износа?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как избежать коррозии и ржавчины на поверхности дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существуют ли особые требования к проведению технического обслуживания автомобиля с дисками R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как часто нужно проводить инспекцию дисков R22 на наличие дефектов или износа?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности необходимо соблюдать при эксплуатации автомобиля с дисками R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли изменения в массе перевозимого груза влиять на работу и безопасность дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие рекомендации по эксплуатации дисков R22 в условиях повышенной влажности или солевого воздействия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности ухода за дисками R22 в зимний период?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как избежать попадания внешних материалов в отверстия дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильные диски R22 для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе материала дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы дисков R22 существуют и какой лучше выбрать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие размеры дисков R22 подходят для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как узнать, подходят ли выбранные диски R22 под шины моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества и недостатки имеют литые и штампованные диски R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могу ли я установить диски R22 большего размера, чем заводские?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности дизайна дисков R22 стоит учитывать при выборе?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие аспекты безопасности следует учитывать при выборе дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой вес дисков R22 считается оптимальным для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие рекомендации по выбору дисков R22 в зависимости от условий эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические характеристики дисков R22 следует проверить перед покупкой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоит ли выбирать диски R22 с дополнительными защитными функциями?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как узнать, что диски R22 имеют высокое качество изготовления?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие материалы используются при производстве легких дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы влияют на стоимость дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как проверить совместимость выбранных дисков R22 с моим автомобилем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как узнать, что диски R22 прошли сертификацию и соответствуют стандартам безопасности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильные диски R22 перед покупкой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли купить диски R22 онлайн?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества покупки дисков R22 в интернет-магазине?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие отзывы покупателей стоит учитывать перед покупкой дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как узнать, что выбранные диски R22 соответствуют моему автомобилю?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить подлинность и качество дисков R22 перед покупкой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как узнать, что выбранные диски R22 имеют сертификат качества?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать подходящие диски R22, основываясь на характеристиках?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как убедиться, что диски R22 подходят для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как проверить надежность и репутацию интернет-магазина, прежде чем сделать покупку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить качество дисков R22, покупаемых в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие условия возврата и гарантии предоставляются при покупке дисков R22 в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могу ли я быть уверен в безопасности моих финансовых данных при покупке дисков R22 в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как узнать о доставке и сроках поставки дисков R22, заказанных в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать надежного продавца дисков R22 в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие отзывы и рейтинги магазина следует учитывать при выборе дисков R22 в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могу ли я получить консультацию по выбору дисков R22 в интернет-магазине?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как узнать о реальном виде и цвете дисков R22, прежде чем сделать заказ в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как защитить себя от мошенничества при покупке дисков R22 в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить подлинность товара при получении дисков R22, заказанных в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие вопросы стоит задать продавцу перед покупкой дисков R22 в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы влияют на стоимость доставки дисков R22 при заказе в интернете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как проверить надежность и безопасность интернет-магазина перед совершением покупки дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В чем заключается основное преимущество литых дисков R22 перед стальными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества предоставляют литые диски R22 в сравнении со стальными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чем литые диски R22 отличаются по внешнему виду от стальных?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы преимущества легких дисков R22 из алюминиевого сплава?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические характеристики делают литые диски R22 более привлекательными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие возможности предоставляют литые диски R22 для улучшения внешнего вида автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чем литые диски R22 выделяются среди других типов колесных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества литые диски R22 имеют для эффективности топливопотребления автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества литые диски R22 обеспечивают в контексте долговечности и стойкости к коррозии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чем литые диски R22 лучше стальных с точки зрения эстетики?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические особенности литых дисков R22 могут быть недостатком?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы риски повреждения литых дисков R22 при неправильной эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы могут увеличить вероятность поломки литых дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие недостатки литых дисков R22 могут влиять на стоимость их обслуживания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие негативные последствия может вызвать дефект литого диска R22 для автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры предосторожности следует принять при использовании литых дисков R22 для предотвращения повреждений?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие недостатки литых дисков R22 могут потребовать дополнительного технического обслуживания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы могут способствовать возникновению дефектов на литых дисках R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие недостатки литых дисков R22 следует учитывать при выборе и покупке?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В чем преимущество стальных дисков R22 перед литыми?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества предлагают стальные диски R22 в сравнении с литыми?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы основные характеристики и преимущества стальных дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические особенности делают стальные диски R22 привлекательными для покупателей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой вес имеют стальные диски R22 по сравнению с литыми?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие возможности предоставляют стальные диски R22 для улучшения характеристик автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие дополнительные преимущества могут быть получены при выборе стальных дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические особенности могут быть недостатком у стальных дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие риски повреждения сопряжены с использованием стальных дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы могут привести к повышению вероятности поломки стальных дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие недостатки стальных дисков R22 могут отразиться на стоимости их обслуживания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие последствия может иметь дефект стального диска R22 для автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры предосторожности следует принять для предотвращения дефектов стальных дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы могут увеличить вероятность появления дефектов на стальных дисках R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие недостатки стальных дисков R22 следует учитывать при выборе и покупке?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В чем основные различия между литыми и стальными дисками R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе между литыми и стальными дисками R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности эксплуатации имеются у литых и стальных дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие условия дорожной среды могут влиять на выбор между литыми и стальными дисками R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности технического обслуживания существуют для литых и стальных дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие сроки эксплуатации можно ожидать от литых и стальных дисков R22?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие критерии выбора являются наиболее важными при покупке литых и стальных дисков R22?</t>
   </si>
 </sst>
 </file>
@@ -509,7 +530,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -640,10 +661,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A132" activeCellId="0" sqref="A132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1147,50 +1168,59 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="B108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
@@ -1270,59 +1300,50 @@
       </c>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="4"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="4"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="4"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="4"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="4"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="4"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="4"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
@@ -1332,6 +1353,41 @@
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
